--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,73 +46,70 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>di</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>ok</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>size</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>size</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>money</t>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
@@ -133,12 +130,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -166,25 +163,25 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -548,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -717,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.71875</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.7956989247311828</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.71875</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.734375</v>
+        <v>0.765625</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,38 +814,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6545454545454545</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C7">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>126</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="L7">
         <v>36</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>36</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7">
-        <v>0.6415094339622641</v>
-      </c>
-      <c r="L7">
-        <v>34</v>
-      </c>
-      <c r="M7">
-        <v>34</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6451612903225806</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.5797101449275363</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6283783783783784</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.5437589670014347</v>
+        <v>0.5179340028694405</v>
       </c>
       <c r="L9">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="M9">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5825242718446602</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.4979253112033195</v>
+        <v>0.495850622406639</v>
       </c>
       <c r="L10">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M10">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.4483606557377049</v>
+        <v>0.4532786885245902</v>
       </c>
       <c r="L11">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M11">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5217391304347826</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.3493975903614458</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.453125</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.3394495412844037</v>
+        <v>0.3363914373088685</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3933649289099526</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3855421686746988</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.2962962962962963</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L15">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3700787401574803</v>
+        <v>0.328125</v>
       </c>
       <c r="C16">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.2097902097902098</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>113</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3578947368421053</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1847389558232932</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1364,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3483146067415731</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.1482456140350877</v>
+        <v>0.1456140350877193</v>
       </c>
       <c r="L18">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M18">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N18">
         <v>0.99</v>
@@ -1409,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3359375</v>
+        <v>0.2376237623762376</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,31 +1432,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.08051948051948052</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1416</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1464,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.297029702970297</v>
+        <v>0.177536231884058</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,31 +1482,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.08021390374331551</v>
+        <v>0.08132726089785296</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>344</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,49 +1514,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2164948453608248</v>
+        <v>0.1649331352154532</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>152</v>
+        <v>562</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.05053191489361702</v>
+        <v>0.04</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,25 +1564,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1809045226130653</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E22">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>163</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1593,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.177536231884058</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C23">
         <v>49</v>
@@ -1611,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1619,13 +1616,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1637931034482759</v>
+        <v>0.155</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1637,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>291</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1645,25 +1642,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1545319465081724</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C25">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>569</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1671,25 +1668,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1396825396825397</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1697,25 +1694,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1360759493670886</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>273</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1723,13 +1720,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1255506607929515</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1741,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>397</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1749,13 +1746,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1086142322097378</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1767,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>238</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1775,25 +1772,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0779510022271715</v>
+        <v>0.06280991735537191</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>414</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1801,51 +1798,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06930693069306931</v>
+        <v>0.04187817258883249</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F31">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.04955527318932656</v>
-      </c>
-      <c r="C32">
-        <v>39</v>
-      </c>
-      <c r="D32">
-        <v>46</v>
-      </c>
-      <c r="E32">
-        <v>0.15</v>
-      </c>
-      <c r="F32">
-        <v>0.85</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
